--- a/LCD/tables/materialGroupProperties.xlsx
+++ b/LCD/tables/materialGroupProperties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\studium\TUM\BA\CE\data_handling\matlab_cad\CAD_Import\LCD\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CC0CDD-2B82-436C-9562-33B3C44E3FD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024DF35C-DD5B-4383-812F-A51D4FC42F0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="properties" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
   <si>
     <t>lifespan</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>materialGroup</t>
+  </si>
+  <si>
+    <t>PE</t>
   </si>
 </sst>
 </file>
@@ -468,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,6 +682,14 @@
         <v>10</v>
       </c>
     </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="6">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -687,10 +698,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{252B1650-8560-409C-8029-79EB4D6892FD}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,6 +970,17 @@
         <v>0.31</v>
       </c>
     </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
